--- a/Documents/Cord/Cord Imports/S1ConditionStd.xlsx
+++ b/Documents/Cord/Cord Imports/S1ConditionStd.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="39">
   <si>
     <t>ProcessName</t>
   </si>
@@ -115,6 +115,37 @@
   </si>
   <si>
     <t>StdValue</t>
+  </si>
+  <si>
+    <t>LifterChangeGearA</t>
+  </si>
+  <si>
+    <t>LifterChangeGearB</t>
+  </si>
+  <si>
+    <t>OuterDiameter</t>
+  </si>
+  <si>
+    <t>TravellerNo</t>
+  </si>
+  <si>
+    <t>RK - 500 J x 1 Pcs.</t>
+  </si>
+  <si>
+    <t>CouterUnit</t>
+  </si>
+  <si>
+    <t>CouterWeight</t>
+  </si>
+  <si>
+    <t>NumberRange</t>
+  </si>
+  <si>
+    <t>CounterSystem</t>
+  </si>
+  <si>
+    <t>เมื่อด้ายเต็ม Counter ที่ตั้งไว้
+เครื่องต้องหยุดและมีสัญญาณไฟเตือน</t>
   </si>
 </sst>
 </file>
@@ -165,9 +196,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -462,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -580,6 +615,152 @@
       </c>
       <c r="F5">
         <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20120</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>4.5</v>
+      </c>
+      <c r="G11">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="72">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Cord/Cord Imports/S1ConditionStd.xlsx
+++ b/Documents/Cord/Cord Imports/S1ConditionStd.xlsx
@@ -4,31 +4,32 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18960" windowHeight="11832" tabRatio="751"/>
+    <workbookView xWindow="13548" yWindow="1788" windowWidth="15312" windowHeight="10968" tabRatio="828"/>
   </bookViews>
   <sheets>
-    <sheet name="9A0663L" sheetId="1" r:id="rId1"/>
-    <sheet name="9A1100L" sheetId="2" r:id="rId2"/>
-    <sheet name="9H0663SL" sheetId="3" r:id="rId3"/>
-    <sheet name="R10023" sheetId="4" r:id="rId4"/>
-    <sheet name="1800TW" sheetId="5" r:id="rId5"/>
-    <sheet name="H1671T" sheetId="6" r:id="rId6"/>
-    <sheet name="KT3R16" sheetId="7" r:id="rId7"/>
-    <sheet name="KT3S71" sheetId="8" r:id="rId8"/>
-    <sheet name="P1100TT" sheetId="9" r:id="rId9"/>
-    <sheet name="P1100ZFT" sheetId="10" r:id="rId10"/>
-    <sheet name="P1402TRH" sheetId="11" r:id="rId11"/>
-    <sheet name="P1670T1R" sheetId="12" r:id="rId12"/>
-    <sheet name="P1670ZFT" sheetId="13" r:id="rId13"/>
-    <sheet name="P1671TT" sheetId="15" r:id="rId14"/>
-    <sheet name="ProductCode" sheetId="14" r:id="rId15"/>
+    <sheet name="ALL" sheetId="20" r:id="rId1"/>
+    <sheet name="9A0663L" sheetId="1" r:id="rId2"/>
+    <sheet name="9A1100L" sheetId="2" r:id="rId3"/>
+    <sheet name="9H0663SL" sheetId="3" r:id="rId4"/>
+    <sheet name="9H0663SL(1)" sheetId="16" r:id="rId5"/>
+    <sheet name="9H0663SL(2)" sheetId="17" r:id="rId6"/>
+    <sheet name="9A1100L(3)" sheetId="18" r:id="rId7"/>
+    <sheet name="R10023" sheetId="4" r:id="rId8"/>
+    <sheet name="1800TW" sheetId="5" r:id="rId9"/>
+    <sheet name="KT3R16" sheetId="7" r:id="rId10"/>
+    <sheet name="KT3S71" sheetId="8" r:id="rId11"/>
+    <sheet name="P1100ZFT" sheetId="10" r:id="rId12"/>
+    <sheet name="P1402TRH" sheetId="11" r:id="rId13"/>
+    <sheet name="P1670T1R" sheetId="12" r:id="rId14"/>
+    <sheet name="P1670ZFT" sheetId="13" r:id="rId15"/>
+    <sheet name="ProductCode" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="55">
   <si>
     <t>ProcessName</t>
   </si>
@@ -147,12 +148,60 @@
     <t>เมื่อด้ายเต็ม Counter ที่ตั้งไว้
 เครื่องต้องหยุดและมีสัญญาณไฟเตือน</t>
   </si>
+  <si>
+    <t>SenserYarnBreak</t>
+  </si>
+  <si>
+    <t>เมื่อด้ายขาด เครื่องหยุด และมีสัญญาณเตือน</t>
+  </si>
+  <si>
+    <t>CalculatedTwistingNumber</t>
+  </si>
+  <si>
+    <t>NumberOfSpindleRotation</t>
+  </si>
+  <si>
+    <t>YarnSpeed</t>
+  </si>
+  <si>
+    <t>เมื่อด้ายเต็ม Counter ที่ตั้งไว้ เครื่องต้องหยุดและมีสัญญาณไฟเตือน</t>
+  </si>
+  <si>
+    <t>RK - 500 J x 1Pcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 210 x 356</t>
+  </si>
+  <si>
+    <t>81/2"R18"L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpecialMention </t>
+  </si>
+  <si>
+    <t xml:space="preserve">มีรอยต่อ ได้ 2 รอยต่อ </t>
+  </si>
+  <si>
+    <t>81/2"R14"L</t>
+  </si>
+  <si>
+    <t>ไม่มีรอยต่อ</t>
+  </si>
+  <si>
+    <t>รอยต่อต้องไม่เกิน 2 จุด ต่อ 1 Bobbin</t>
+  </si>
+  <si>
+    <t>CouterUnit2</t>
+  </si>
+  <si>
+    <t>CouterWeight2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +217,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="CordiaUPC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -193,18 +247,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Normal 3" xfId="1"/>
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -497,21 +557,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F163" sqref="F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -542,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -562,7 +622,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -574,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -582,7 +642,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -594,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -602,7 +662,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -614,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -622,7 +682,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -642,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -662,7 +722,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -682,7 +742,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -702,7 +762,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -713,8 +773,8 @@
       <c r="E10" t="b">
         <v>0</v>
       </c>
-      <c r="F10" s="2">
-        <v>20120</v>
+      <c r="F10">
+        <v>12000</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -725,56 +785,3216 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>24000</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2.75</v>
+      </c>
+      <c r="G12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>5.5</v>
+      </c>
+      <c r="G13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="43.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>165</v>
+      </c>
+      <c r="G16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>3800</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>23.29</v>
+      </c>
+      <c r="G18">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="43.2">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.8">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>164</v>
+      </c>
+      <c r="G32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>3100</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G34">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5">
+        <v>13500</v>
+      </c>
+      <c r="G44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="43.2">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="28.8">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>210</v>
+      </c>
+      <c r="G48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>3800</v>
+      </c>
+      <c r="G49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>16.02</v>
+      </c>
+      <c r="G50">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>33100</v>
+      </c>
+      <c r="G60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>5.7</v>
+      </c>
+      <c r="G61">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="43.2">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="28.8">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>75</v>
+      </c>
+      <c r="G64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>3800</v>
+      </c>
+      <c r="G65">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>50.66</v>
+      </c>
+      <c r="G66">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2">
+        <v>21800</v>
+      </c>
+      <c r="G76">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>5.7</v>
+      </c>
+      <c r="G77">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="43.2">
+      <c r="A78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="28.8">
+      <c r="A79" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>60</v>
+      </c>
+      <c r="G80">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>42</v>
+      </c>
+      <c r="D81" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>3100</v>
+      </c>
+      <c r="G81">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>43</v>
+      </c>
+      <c r="D82" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>51.66</v>
+      </c>
+      <c r="G82">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>48</v>
+      </c>
+      <c r="D83" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>31</v>
+      </c>
+      <c r="D90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" t="s">
+        <v>32</v>
+      </c>
+      <c r="D91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2">
+        <v>21700</v>
+      </c>
+      <c r="G92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" t="s">
+        <v>35</v>
+      </c>
+      <c r="D93" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
+      <c r="G93">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="43.2">
+      <c r="A94" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="28.8">
+      <c r="A95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" t="s">
+        <v>41</v>
+      </c>
+      <c r="D96" t="s">
+        <v>36</v>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>120</v>
+      </c>
+      <c r="G96">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97" t="s">
+        <v>36</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>3800</v>
+      </c>
+      <c r="G97">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="G98">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>48</v>
+      </c>
+      <c r="D99" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" t="s">
+        <v>29</v>
+      </c>
+      <c r="D104" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" t="s">
+        <v>31</v>
+      </c>
+      <c r="D106" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" t="s">
+        <v>36</v>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" s="2">
+        <v>45300</v>
+      </c>
+      <c r="G108">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" t="s">
+        <v>36</v>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>5</v>
+      </c>
+      <c r="G109">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="43.2">
+      <c r="A110" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" t="s">
+        <v>37</v>
+      </c>
+      <c r="D110" t="s">
+        <v>23</v>
+      </c>
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="28.8">
+      <c r="A111" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" t="s">
+        <v>39</v>
+      </c>
+      <c r="D111" t="s">
+        <v>23</v>
+      </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" t="s">
+        <v>41</v>
+      </c>
+      <c r="D112" t="s">
+        <v>36</v>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>90</v>
+      </c>
+      <c r="G112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" t="s">
+        <v>42</v>
+      </c>
+      <c r="D113" t="s">
+        <v>36</v>
+      </c>
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>3800</v>
+      </c>
+      <c r="G113">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" t="s">
+        <v>43</v>
+      </c>
+      <c r="D114" t="s">
+        <v>36</v>
+      </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>42.78</v>
+      </c>
+      <c r="G114">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" t="s">
+        <v>48</v>
+      </c>
+      <c r="D115" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C116" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118" t="b">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" t="s">
+        <v>27</v>
+      </c>
+      <c r="D119" t="s">
+        <v>25</v>
+      </c>
+      <c r="E119" t="b">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>20</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" t="s">
+        <v>30</v>
+      </c>
+      <c r="D121" t="s">
+        <v>25</v>
+      </c>
+      <c r="E121" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>31</v>
+      </c>
+      <c r="D122" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122" t="b">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>32</v>
+      </c>
+      <c r="D123" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" t="b">
+        <v>0</v>
+      </c>
+      <c r="F123" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" t="s">
+        <v>36</v>
+      </c>
+      <c r="E124" t="b">
+        <v>0</v>
+      </c>
+      <c r="F124" s="2">
+        <v>20120</v>
+      </c>
+      <c r="G124">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>20</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="D125" t="s">
+        <v>36</v>
+      </c>
+      <c r="E125" t="b">
+        <v>0</v>
+      </c>
+      <c r="F125">
         <v>4.5</v>
       </c>
-      <c r="G11">
+      <c r="G125">
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="72">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="126" spans="1:7" ht="43.2">
+      <c r="A126" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C126" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="D126" t="s">
+        <v>23</v>
+      </c>
+      <c r="E126" t="b">
+        <v>0</v>
+      </c>
+      <c r="F126" s="3" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="28.8">
+      <c r="A127" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>39</v>
+      </c>
+      <c r="D127" t="s">
+        <v>23</v>
+      </c>
+      <c r="E127" t="b">
+        <v>0</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>41</v>
+      </c>
+      <c r="D128" t="s">
+        <v>36</v>
+      </c>
+      <c r="E128" t="b">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>164</v>
+      </c>
+      <c r="G128">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" t="s">
+        <v>42</v>
+      </c>
+      <c r="D129" t="s">
+        <v>36</v>
+      </c>
+      <c r="E129" t="b">
+        <v>0</v>
+      </c>
+      <c r="F129" s="2">
+        <v>3800</v>
+      </c>
+      <c r="G129">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>43</v>
+      </c>
+      <c r="D130" t="s">
+        <v>36</v>
+      </c>
+      <c r="E130" t="b">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>23.56</v>
+      </c>
+      <c r="G130">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>20</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" t="s">
+        <v>48</v>
+      </c>
+      <c r="D131" t="s">
+        <v>23</v>
+      </c>
+      <c r="E131" t="b">
+        <v>0</v>
+      </c>
+      <c r="F131" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>20</v>
+      </c>
+      <c r="B132" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" t="s">
+        <v>23</v>
+      </c>
+      <c r="E132" t="b">
+        <v>0</v>
+      </c>
+      <c r="F132" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" t="s">
+        <v>24</v>
+      </c>
+      <c r="D133" t="s">
+        <v>25</v>
+      </c>
+      <c r="E133" t="b">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>20</v>
+      </c>
+      <c r="B134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134" t="s">
+        <v>25</v>
+      </c>
+      <c r="E134" t="b">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135" t="b">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>20</v>
+      </c>
+      <c r="B136" t="s">
+        <v>16</v>
+      </c>
+      <c r="C136" t="s">
+        <v>29</v>
+      </c>
+      <c r="D136" t="s">
+        <v>25</v>
+      </c>
+      <c r="E136" t="b">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" t="s">
+        <v>25</v>
+      </c>
+      <c r="E137" t="b">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>20</v>
+      </c>
+      <c r="B138" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" t="s">
+        <v>31</v>
+      </c>
+      <c r="D138" t="s">
+        <v>25</v>
+      </c>
+      <c r="E138" t="b">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" t="s">
+        <v>32</v>
+      </c>
+      <c r="D139" t="s">
+        <v>23</v>
+      </c>
+      <c r="E139" t="b">
+        <v>0</v>
+      </c>
+      <c r="F139" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>20</v>
+      </c>
+      <c r="B140" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" t="s">
+        <v>34</v>
+      </c>
+      <c r="D140" t="s">
+        <v>36</v>
+      </c>
+      <c r="E140" t="b">
+        <v>0</v>
+      </c>
+      <c r="F140" s="2">
+        <v>16450</v>
+      </c>
+      <c r="G140">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>20</v>
+      </c>
+      <c r="B141" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" t="s">
+        <v>35</v>
+      </c>
+      <c r="D141" t="s">
+        <v>36</v>
+      </c>
+      <c r="E141" t="b">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G141">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="43.2">
+      <c r="A142" t="s">
+        <v>20</v>
+      </c>
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" t="s">
+        <v>37</v>
+      </c>
+      <c r="D142" t="s">
+        <v>23</v>
+      </c>
+      <c r="E142" t="b">
+        <v>0</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="28.8">
+      <c r="A143" t="s">
+        <v>20</v>
+      </c>
+      <c r="B143" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" t="s">
+        <v>39</v>
+      </c>
+      <c r="D143" t="s">
+        <v>23</v>
+      </c>
+      <c r="E143" t="b">
+        <v>0</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>20</v>
+      </c>
+      <c r="B144" t="s">
+        <v>16</v>
+      </c>
+      <c r="C144" t="s">
+        <v>41</v>
+      </c>
+      <c r="D144" t="s">
+        <v>36</v>
+      </c>
+      <c r="E144" t="b">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>45</v>
+      </c>
+      <c r="G144">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" t="s">
+        <v>42</v>
+      </c>
+      <c r="D145" t="s">
+        <v>36</v>
+      </c>
+      <c r="E145" t="b">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>3100</v>
+      </c>
+      <c r="G145">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>20</v>
+      </c>
+      <c r="B146" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146" t="s">
+        <v>43</v>
+      </c>
+      <c r="D146" t="s">
+        <v>36</v>
+      </c>
+      <c r="E146" t="b">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>86.21</v>
+      </c>
+      <c r="G146">
+        <v>38.979999999999997</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>20</v>
+      </c>
+      <c r="B147" t="s">
+        <v>16</v>
+      </c>
+      <c r="C147" t="s">
+        <v>48</v>
+      </c>
+      <c r="D147" t="s">
+        <v>23</v>
+      </c>
+      <c r="E147" t="b">
+        <v>0</v>
+      </c>
+      <c r="F147" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>20</v>
+      </c>
+      <c r="B148" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" t="s">
+        <v>21</v>
+      </c>
+      <c r="D148" t="s">
+        <v>23</v>
+      </c>
+      <c r="E148" t="b">
+        <v>0</v>
+      </c>
+      <c r="F148" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>20</v>
+      </c>
+      <c r="B149" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" t="s">
+        <v>24</v>
+      </c>
+      <c r="D149" t="s">
+        <v>25</v>
+      </c>
+      <c r="E149" t="b">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>20</v>
+      </c>
+      <c r="B150" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" t="s">
+        <v>26</v>
+      </c>
+      <c r="D150" t="s">
+        <v>25</v>
+      </c>
+      <c r="E150" t="b">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>20</v>
+      </c>
+      <c r="B151" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" t="s">
+        <v>27</v>
+      </c>
+      <c r="D151" t="s">
+        <v>25</v>
+      </c>
+      <c r="E151" t="b">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>20</v>
+      </c>
+      <c r="B152" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" t="s">
+        <v>29</v>
+      </c>
+      <c r="D152" t="s">
+        <v>25</v>
+      </c>
+      <c r="E152" t="b">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>20</v>
+      </c>
+      <c r="B153" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" t="s">
+        <v>30</v>
+      </c>
+      <c r="D153" t="s">
+        <v>25</v>
+      </c>
+      <c r="E153" t="b">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>20</v>
+      </c>
+      <c r="B154" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" t="s">
+        <v>31</v>
+      </c>
+      <c r="D154" t="s">
+        <v>25</v>
+      </c>
+      <c r="E154" t="b">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>20</v>
+      </c>
+      <c r="B155" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" t="s">
+        <v>32</v>
+      </c>
+      <c r="D155" t="s">
+        <v>23</v>
+      </c>
+      <c r="E155" t="b">
+        <v>0</v>
+      </c>
+      <c r="F155" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>20</v>
+      </c>
+      <c r="B156" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" t="s">
+        <v>34</v>
+      </c>
+      <c r="D156" t="s">
+        <v>36</v>
+      </c>
+      <c r="E156" t="b">
+        <v>0</v>
+      </c>
+      <c r="F156" s="2">
+        <v>1793</v>
+      </c>
+      <c r="G156">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>20</v>
+      </c>
+      <c r="B157" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" t="s">
+        <v>35</v>
+      </c>
+      <c r="D157" t="s">
+        <v>36</v>
+      </c>
+      <c r="E157" t="b">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>3.1</v>
+      </c>
+      <c r="G157">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="43.2">
+      <c r="A158" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" t="s">
+        <v>37</v>
+      </c>
+      <c r="D158" t="s">
+        <v>23</v>
+      </c>
+      <c r="E158" t="b">
+        <v>0</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="28.8">
+      <c r="A159" t="s">
+        <v>20</v>
+      </c>
+      <c r="B159" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" t="s">
+        <v>39</v>
+      </c>
+      <c r="D159" t="s">
+        <v>23</v>
+      </c>
+      <c r="E159" t="b">
+        <v>0</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>20</v>
+      </c>
+      <c r="B160" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" t="s">
+        <v>41</v>
+      </c>
+      <c r="D160" t="s">
+        <v>36</v>
+      </c>
+      <c r="E160" t="b">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>150</v>
+      </c>
+      <c r="G160">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>20</v>
+      </c>
+      <c r="B161" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" t="s">
+        <v>42</v>
+      </c>
+      <c r="D161" t="s">
+        <v>36</v>
+      </c>
+      <c r="E161" t="b">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>3100</v>
+      </c>
+      <c r="G161">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>20</v>
+      </c>
+      <c r="B162" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" t="s">
+        <v>43</v>
+      </c>
+      <c r="D162" t="s">
+        <v>36</v>
+      </c>
+      <c r="E162" t="b">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>20.14</v>
+      </c>
+      <c r="G162">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>20</v>
+      </c>
+      <c r="B163" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" t="s">
+        <v>48</v>
+      </c>
+      <c r="D163" t="s">
+        <v>23</v>
+      </c>
+      <c r="E163" t="b">
+        <v>0</v>
+      </c>
+      <c r="F163" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A2" sqref="A2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -816,7 +4036,334 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>21800</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>5.7</v>
+      </c>
+      <c r="G11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="72">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3100</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>51.66</v>
+      </c>
+      <c r="G16">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -826,10 +4373,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A2" sqref="A2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -871,7 +4418,334 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>21700</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="72">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>120</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3800</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="G16">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -881,10 +4755,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A2" sqref="A2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -926,7 +4800,334 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45300</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="72">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>90</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3800</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>42.78</v>
+      </c>
+      <c r="G16">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -936,10 +5137,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A2" sqref="A2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -981,7 +5182,334 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>16450</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="72">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3100</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>86.21</v>
+      </c>
+      <c r="G16">
+        <v>38.979999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -991,10 +5519,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1036,7 +5564,334 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1793</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3.1</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="72">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>150</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3100</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>20.14</v>
+      </c>
+      <c r="G16">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1046,10 +5901,63 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1205,10 +6113,822 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20120</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>4.5</v>
+      </c>
+      <c r="G11">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="72">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>164</v>
+      </c>
+      <c r="G14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3800</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>23.56</v>
+      </c>
+      <c r="G16">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>12000</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>24000</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2.75</v>
+      </c>
+      <c r="G12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>5.5</v>
+      </c>
+      <c r="G13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="43.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>165</v>
+      </c>
+      <c r="G16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>3800</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>23.29</v>
+      </c>
+      <c r="G18">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1250,7 +6970,325 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="72">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>153.19999999999999</v>
+      </c>
+      <c r="G14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3100</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G16">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1259,12 +7297,1138 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="72">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>177.4</v>
+      </c>
+      <c r="G14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3100</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G16">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="72">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>164</v>
+      </c>
+      <c r="G14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3100</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G16">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20000</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>4.5</v>
+      </c>
+      <c r="G11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="72">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>164</v>
+      </c>
+      <c r="G14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3100</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>19.27</v>
+      </c>
+      <c r="G16">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1306,21 +8470,348 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>13500</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="72">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>210</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3800</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>16.02</v>
+      </c>
+      <c r="G16">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1362,282 +8853,334 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
         <v>10</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>33100</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>5.7</v>
+      </c>
+      <c r="G11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="72">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>75</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3800</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>50.66</v>
+      </c>
+      <c r="G16">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
